--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1160487.524198447</v>
+        <v>1219392.301000505</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581892</v>
+        <v>16877859.47655641</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2113478.654365223</v>
+        <v>1396887.814324548</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6420257.953226492</v>
+        <v>6661041.588828482</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +667,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>401.2917783829651</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>245.1065374140431</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78.47678022721522</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -835,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400.6510122945224</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>112.3416013866397</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -947,13 +949,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1066,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>43.48898701015895</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>46.22530271040155</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1133,22 +1135,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>236.1661758991289</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>27.23998255835138</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1303,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1348,13 +1350,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>82.1526353103782</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>125.1716544454846</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>313.5689679889809</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>184.881664452623</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1540,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170459</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1613,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>104.3848552264046</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1670,10 +1672,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>384.5036762647915</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1768,10 +1770,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>54.18430635300744</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1783,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,13 +1824,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>161.1551102058694</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1859,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2099,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>145.8999204549465</v>
+        <v>24.62703520776638</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3284,7 +3286,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3436,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3673,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3727,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>213.1125887729338</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3740,22 +3742,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>266.0157947715485</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>292.7767969700387</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3910,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022785</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3952,10 +3954,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>193.8659438253736</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3977,16 +3979,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>144.5785428541249</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4040,7 +4042,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>161.369892523551</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4138,10 +4140,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>104.9141091864657</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>240.273786227905</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1788.213342516573</v>
+        <v>1786.474744857284</v>
       </c>
       <c r="C2" t="n">
-        <v>1350.070869699997</v>
+        <v>1348.332272040707</v>
       </c>
       <c r="D2" t="n">
-        <v>914.161084874441</v>
+        <v>912.4224872151517</v>
       </c>
       <c r="E2" t="n">
-        <v>884.4267440731403</v>
+        <v>478.6477423734469</v>
       </c>
       <c r="F2" t="n">
-        <v>456.5593144823481</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="G2" t="n">
-        <v>55.16148310561195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H2" t="n">
-        <v>55.16148310561195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M2" t="n">
-        <v>54.74469373275195</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="N2" t="n">
-        <v>666.6506660403358</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O2" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S2" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T2" t="n">
-        <v>2737.234686637598</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.012383954615</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.012383954615</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="W2" t="n">
-        <v>2477.197333406052</v>
+        <v>3040.202902463227</v>
       </c>
       <c r="X2" t="n">
-        <v>2462.095274025767</v>
+        <v>2621.060439042538</v>
       </c>
       <c r="Y2" t="n">
-        <v>2214.512913001481</v>
+        <v>2212.774315342192</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C3" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D3" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E3" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F3" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G3" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="N3" t="n">
-        <v>54.74469373275195</v>
+        <v>799.6463285888539</v>
       </c>
       <c r="O3" t="n">
-        <v>732.2102786755574</v>
+        <v>799.6463285888539</v>
       </c>
       <c r="P3" t="n">
-        <v>1409.675863618363</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="Q3" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R3" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S3" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T3" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U3" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V3" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W3" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X3" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y3" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1133.802854344633</v>
+        <v>1063.70072307014</v>
       </c>
       <c r="C4" t="n">
-        <v>961.2411428278582</v>
+        <v>891.1390115533646</v>
       </c>
       <c r="D4" t="n">
-        <v>795.3631500293809</v>
+        <v>725.2610187548873</v>
       </c>
       <c r="E4" t="n">
-        <v>625.6051462801182</v>
+        <v>555.5030150056247</v>
       </c>
       <c r="F4" t="n">
-        <v>448.8980922418745</v>
+        <v>378.7959609673809</v>
       </c>
       <c r="G4" t="n">
-        <v>283.3068172677021</v>
+        <v>213.2046859932086</v>
       </c>
       <c r="H4" t="n">
-        <v>143.4046429580766</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I4" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J4" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K4" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L4" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M4" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N4" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O4" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P4" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q4" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R4" t="n">
-        <v>2649.986482340924</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S4" t="n">
-        <v>2490.74511363892</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T4" t="n">
-        <v>2244.865667217376</v>
+        <v>2565.745680431779</v>
       </c>
       <c r="U4" t="n">
-        <v>2244.865667217376</v>
+        <v>2287.312679684884</v>
       </c>
       <c r="V4" t="n">
-        <v>1957.910159087806</v>
+        <v>2000.357171555315</v>
       </c>
       <c r="W4" t="n">
-        <v>1685.883754674098</v>
+        <v>1728.330767141606</v>
       </c>
       <c r="X4" t="n">
-        <v>1440.49200000751</v>
+        <v>1482.939012475019</v>
       </c>
       <c r="Y4" t="n">
-        <v>1213.072329321618</v>
+        <v>1255.519341789127</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>174.694299018625</v>
+        <v>1922.890098168082</v>
       </c>
       <c r="C5" t="n">
-        <v>140.5922302424523</v>
+        <v>1484.747625351506</v>
       </c>
       <c r="D5" t="n">
-        <v>108.7228494573009</v>
+        <v>1048.83784052595</v>
       </c>
       <c r="E5" t="n">
-        <v>78.98850865600016</v>
+        <v>615.0630956842451</v>
       </c>
       <c r="F5" t="n">
-        <v>55.16148310561195</v>
+        <v>187.1956660934529</v>
       </c>
       <c r="G5" t="n">
-        <v>55.16148310561195</v>
+        <v>187.1956660934529</v>
       </c>
       <c r="H5" t="n">
-        <v>55.16148310561195</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M5" t="n">
-        <v>54.74469373275195</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="N5" t="n">
-        <v>666.6506660403358</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O5" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S5" t="n">
-        <v>2653.582812821435</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T5" t="n">
-        <v>2433.515585694473</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.293283011491</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="V5" t="n">
-        <v>1811.676332945317</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="W5" t="n">
-        <v>1406.82087835635</v>
+        <v>3176.618255774026</v>
       </c>
       <c r="X5" t="n">
-        <v>987.678414935661</v>
+        <v>2757.475792353337</v>
       </c>
       <c r="Y5" t="n">
-        <v>579.3922912353144</v>
+        <v>2349.18966865299</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="N6" t="n">
-        <v>54.74469373275195</v>
+        <v>916.8191066831936</v>
       </c>
       <c r="O6" t="n">
-        <v>732.2102786755574</v>
+        <v>916.8191066831936</v>
       </c>
       <c r="P6" t="n">
-        <v>1060.072738485145</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="Q6" t="n">
-        <v>1600.811677117221</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1133.802854344633</v>
+        <v>898.1094480959675</v>
       </c>
       <c r="C7" t="n">
-        <v>961.2411428278582</v>
+        <v>725.5477365791925</v>
       </c>
       <c r="D7" t="n">
-        <v>795.3631500293809</v>
+        <v>559.6697437807152</v>
       </c>
       <c r="E7" t="n">
-        <v>625.6051462801182</v>
+        <v>389.9117400314524</v>
       </c>
       <c r="F7" t="n">
-        <v>448.8980922418745</v>
+        <v>213.2046859932086</v>
       </c>
       <c r="G7" t="n">
-        <v>283.3068172677021</v>
+        <v>213.2046859932086</v>
       </c>
       <c r="H7" t="n">
-        <v>143.4046429580766</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R7" t="n">
-        <v>2649.986482340924</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S7" t="n">
-        <v>2649.986482340924</v>
+        <v>2646.033851879151</v>
       </c>
       <c r="T7" t="n">
-        <v>2404.107035919379</v>
+        <v>2400.154405457607</v>
       </c>
       <c r="U7" t="n">
-        <v>2357.414810959378</v>
+        <v>2121.721404710712</v>
       </c>
       <c r="V7" t="n">
-        <v>2070.459302829808</v>
+        <v>1834.765896581142</v>
       </c>
       <c r="W7" t="n">
-        <v>1798.4328984161</v>
+        <v>1562.739492167434</v>
       </c>
       <c r="X7" t="n">
-        <v>1553.041143749512</v>
+        <v>1317.347737500847</v>
       </c>
       <c r="Y7" t="n">
-        <v>1325.62147306362</v>
+        <v>1089.928066814955</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>980.1325344357651</v>
+        <v>2047.965425958475</v>
       </c>
       <c r="C8" t="n">
-        <v>946.0304656595924</v>
+        <v>1609.822953141899</v>
       </c>
       <c r="D8" t="n">
-        <v>914.161084874441</v>
+        <v>1173.913168316343</v>
       </c>
       <c r="E8" t="n">
-        <v>884.4267440731403</v>
+        <v>740.1384234746383</v>
       </c>
       <c r="F8" t="n">
-        <v>456.5593144823481</v>
+        <v>312.2709938838461</v>
       </c>
       <c r="G8" t="n">
-        <v>55.16148310561195</v>
+        <v>312.2709938838461</v>
       </c>
       <c r="H8" t="n">
-        <v>55.16148310561195</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L8" t="n">
-        <v>54.74469373275195</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="M8" t="n">
-        <v>54.74469373275195</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="N8" t="n">
-        <v>666.6506660403358</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O8" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T8" t="n">
-        <v>2517.167459510636</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U8" t="n">
-        <v>2257.945156827654</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V8" t="n">
-        <v>2257.945156827654</v>
+        <v>3302.508634112982</v>
       </c>
       <c r="W8" t="n">
-        <v>1853.089702238687</v>
+        <v>3301.693583564419</v>
       </c>
       <c r="X8" t="n">
-        <v>1433.947238817997</v>
+        <v>2882.55112014373</v>
       </c>
       <c r="Y8" t="n">
-        <v>1406.432104920673</v>
+        <v>2474.264996443383</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="N9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="O9" t="n">
-        <v>732.2102786755574</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="P9" t="n">
-        <v>1409.675863618363</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q9" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>968.2115793704611</v>
+        <v>1152.360672295464</v>
       </c>
       <c r="C10" t="n">
-        <v>795.649867853686</v>
+        <v>979.7989607786893</v>
       </c>
       <c r="D10" t="n">
-        <v>629.7718750552087</v>
+        <v>813.920967980212</v>
       </c>
       <c r="E10" t="n">
-        <v>460.0138713059459</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="F10" t="n">
-        <v>283.3068172677021</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="G10" t="n">
-        <v>283.3068172677021</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H10" t="n">
-        <v>143.4046429580766</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R10" t="n">
-        <v>2671.404303635552</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S10" t="n">
-        <v>2512.162934933549</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="T10" t="n">
-        <v>2266.283488512004</v>
+        <v>2263.423485168206</v>
       </c>
       <c r="U10" t="n">
-        <v>1987.850487765109</v>
+        <v>1984.990484421312</v>
       </c>
       <c r="V10" t="n">
-        <v>1904.868027855636</v>
+        <v>1698.034976291742</v>
       </c>
       <c r="W10" t="n">
-        <v>1632.841623441928</v>
+        <v>1698.034976291742</v>
       </c>
       <c r="X10" t="n">
-        <v>1387.44986877534</v>
+        <v>1571.598961700343</v>
       </c>
       <c r="Y10" t="n">
-        <v>1160.030198089448</v>
+        <v>1344.179291014452</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1318.201488914845</v>
+        <v>1080.983618291964</v>
       </c>
       <c r="C11" t="n">
-        <v>1318.201488914845</v>
+        <v>1080.983618291964</v>
       </c>
       <c r="D11" t="n">
-        <v>1318.201488914845</v>
+        <v>1080.983618291964</v>
       </c>
       <c r="E11" t="n">
-        <v>884.4267440731403</v>
+        <v>764.247286989963</v>
       </c>
       <c r="F11" t="n">
-        <v>456.5593144823481</v>
+        <v>764.247286989963</v>
       </c>
       <c r="G11" t="n">
-        <v>55.16148310561195</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H11" t="n">
-        <v>55.16148310561195</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M11" t="n">
-        <v>54.74469373275195</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="N11" t="n">
-        <v>732.2102786755574</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O11" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q11" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S11" t="n">
-        <v>2737.234686637598</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T11" t="n">
-        <v>2737.234686637598</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U11" t="n">
-        <v>2737.234686637598</v>
+        <v>3102.184180553048</v>
       </c>
       <c r="V11" t="n">
-        <v>2550.485530624847</v>
+        <v>2739.567230486874</v>
       </c>
       <c r="W11" t="n">
-        <v>2145.630076035881</v>
+        <v>2334.711775897908</v>
       </c>
       <c r="X11" t="n">
-        <v>1726.487612615192</v>
+        <v>1915.569312477218</v>
       </c>
       <c r="Y11" t="n">
-        <v>1318.201488914845</v>
+        <v>1507.283188776872</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="N12" t="n">
-        <v>382.60715354234</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="O12" t="n">
-        <v>382.60715354234</v>
+        <v>799.6463285888539</v>
       </c>
       <c r="P12" t="n">
-        <v>1060.072738485145</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="Q12" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>905.2407308096831</v>
+        <v>782.7963491011951</v>
       </c>
       <c r="C13" t="n">
-        <v>732.679019292908</v>
+        <v>610.2346375844201</v>
       </c>
       <c r="D13" t="n">
-        <v>566.8010264944307</v>
+        <v>444.3566447859428</v>
       </c>
       <c r="E13" t="n">
-        <v>397.0430227451681</v>
+        <v>274.59864103668</v>
       </c>
       <c r="F13" t="n">
-        <v>220.3359687069243</v>
+        <v>97.89158699843622</v>
       </c>
       <c r="G13" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H13" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S13" t="n">
-        <v>2653.165134592867</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T13" t="n">
-        <v>2407.285688171322</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U13" t="n">
-        <v>2128.852687424428</v>
+        <v>2006.40830571594</v>
       </c>
       <c r="V13" t="n">
-        <v>1841.897179294858</v>
+        <v>1719.45279758637</v>
       </c>
       <c r="W13" t="n">
-        <v>1569.87077488115</v>
+        <v>1447.426393172662</v>
       </c>
       <c r="X13" t="n">
-        <v>1324.479020214562</v>
+        <v>1202.034638506074</v>
       </c>
       <c r="Y13" t="n">
-        <v>1097.05934952867</v>
+        <v>974.6149678201823</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1322.152427516857</v>
+        <v>1340.205920974947</v>
       </c>
       <c r="C14" t="n">
-        <v>884.0099547002803</v>
+        <v>902.0634481583706</v>
       </c>
       <c r="D14" t="n">
-        <v>884.0099547002803</v>
+        <v>902.0634481583706</v>
       </c>
       <c r="E14" t="n">
-        <v>884.0099547002803</v>
+        <v>468.2887033166658</v>
       </c>
       <c r="F14" t="n">
-        <v>456.1425251094881</v>
+        <v>468.2887033166658</v>
       </c>
       <c r="G14" t="n">
-        <v>54.74469373275195</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M14" t="n">
-        <v>54.74469373275195</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="N14" t="n">
-        <v>666.6506660403358</v>
+        <v>1887.539675852265</v>
       </c>
       <c r="O14" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P14" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q14" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T14" t="n">
-        <v>2737.234686637598</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U14" t="n">
-        <v>2478.012383954615</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="V14" t="n">
-        <v>2115.395433888441</v>
+        <v>2998.789533169857</v>
       </c>
       <c r="W14" t="n">
-        <v>1710.539979299475</v>
+        <v>2593.934078580891</v>
       </c>
       <c r="X14" t="n">
-        <v>1322.152427516857</v>
+        <v>2174.791615160202</v>
       </c>
       <c r="Y14" t="n">
-        <v>1322.152427516857</v>
+        <v>1766.505491459855</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="N15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="O15" t="n">
-        <v>382.60715354234</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="P15" t="n">
-        <v>1060.072738485145</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="Q15" t="n">
-        <v>1600.811677117221</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1133.802854344633</v>
+        <v>782.7963491011951</v>
       </c>
       <c r="C16" t="n">
-        <v>961.2411428278582</v>
+        <v>610.2346375844201</v>
       </c>
       <c r="D16" t="n">
-        <v>795.3631500293809</v>
+        <v>555.5030150056247</v>
       </c>
       <c r="E16" t="n">
-        <v>625.6051462801182</v>
+        <v>555.5030150056247</v>
       </c>
       <c r="F16" t="n">
-        <v>448.8980922418745</v>
+        <v>378.7959609673809</v>
       </c>
       <c r="G16" t="n">
-        <v>283.3068172677021</v>
+        <v>213.2046859932086</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4046429580766</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S16" t="n">
-        <v>2512.162934933549</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T16" t="n">
-        <v>2266.283488512004</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U16" t="n">
-        <v>1987.850487765109</v>
+        <v>2006.40830571594</v>
       </c>
       <c r="V16" t="n">
-        <v>1825.067548163221</v>
+        <v>1719.45279758637</v>
       </c>
       <c r="W16" t="n">
-        <v>1553.041143749512</v>
+        <v>1447.426393172662</v>
       </c>
       <c r="X16" t="n">
-        <v>1553.041143749512</v>
+        <v>1202.034638506074</v>
       </c>
       <c r="Y16" t="n">
-        <v>1325.62147306362</v>
+        <v>974.6149678201823</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5540,25 +5542,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5604,13 +5606,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N18" t="n">
-        <v>1336.088111831086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5777,25 +5779,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5838,7 +5840,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>1300.985674363279</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N21" t="n">
         <v>1765.500601749588</v>
@@ -5993,22 +5995,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>475.2748675296854</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M23" t="n">
-        <v>1632.322702740236</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6075,13 +6077,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P24" t="n">
         <v>1765.500601749588</v>
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>1463.16863798718</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,22 +6302,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O27" t="n">
         <v>287.8657185439749</v>
@@ -6464,22 +6466,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>1177.320806523639</v>
+        <v>1601.005850966132</v>
       </c>
       <c r="M29" t="n">
-        <v>2334.36864173419</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="N29" t="n">
-        <v>3460.099625170637</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O29" t="n">
-        <v>4440.279291740943</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6549,19 +6551,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N30" t="n">
-        <v>634.526213836947</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1162.814665109382</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
-        <v>990.252953592607</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6698,13 +6700,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>306.120802776629</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M32" t="n">
         <v>1463.16863798718</v>
@@ -6789,16 +6791,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,49 +6940,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>306.1208027766299</v>
+        <v>1134.430677610025</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.168637987181</v>
+        <v>2291.478512820576</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>3417.209496257023</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7026,16 +7028,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N36" t="n">
-        <v>1336.088111831086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7175,10 +7177,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>388.1086717343205</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>1463.16863798718</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M38" t="n">
         <v>1463.16863798718</v>
@@ -7260,19 +7262,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O39" t="n">
-        <v>1116.062450089081</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P39" t="n">
-        <v>1116.062450089081</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1015.727725908489</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>843.1660143917137</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>677.2880215932364</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>507.5300178439736</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>330.8229638057298</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1015.727725908489</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1606.914854098769</v>
+        <v>1643.925021918072</v>
       </c>
       <c r="C41" t="n">
-        <v>1606.914854098769</v>
+        <v>1205.782549101495</v>
       </c>
       <c r="D41" t="n">
-        <v>1606.914854098769</v>
+        <v>769.8727642759395</v>
       </c>
       <c r="E41" t="n">
-        <v>1173.140109257064</v>
+        <v>501.1699412743753</v>
       </c>
       <c r="F41" t="n">
-        <v>745.2726796662719</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="G41" t="n">
-        <v>343.8748482895357</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L41" t="n">
-        <v>54.74469373275195</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="M41" t="n">
-        <v>732.2102786755574</v>
+        <v>1135.235569298822</v>
       </c>
       <c r="N41" t="n">
-        <v>1409.675863618363</v>
+        <v>2042.354151383163</v>
       </c>
       <c r="O41" t="n">
-        <v>2087.141448561168</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="P41" t="n">
-        <v>2190.735900679003</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q41" t="n">
-        <v>2737.234686637598</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V41" t="n">
-        <v>2737.234686637598</v>
+        <v>3302.508634112982</v>
       </c>
       <c r="W41" t="n">
-        <v>2441.500548284023</v>
+        <v>2897.653179524015</v>
       </c>
       <c r="X41" t="n">
-        <v>2441.500548284023</v>
+        <v>2478.510716103326</v>
       </c>
       <c r="Y41" t="n">
-        <v>2033.214424583677</v>
+        <v>2070.224592402979</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I42" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J42" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K42" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L42" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M42" t="n">
-        <v>363.05328532595</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="N42" t="n">
-        <v>1040.518870268755</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="O42" t="n">
-        <v>1717.984455211561</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="P42" t="n">
-        <v>1717.984455211561</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="Q42" t="n">
-        <v>1717.984455211561</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1133.802854344633</v>
+        <v>761.378527806567</v>
       </c>
       <c r="C43" t="n">
-        <v>961.2411428278582</v>
+        <v>588.816816289792</v>
       </c>
       <c r="D43" t="n">
-        <v>795.3631500293809</v>
+        <v>422.9388234913147</v>
       </c>
       <c r="E43" t="n">
-        <v>625.6051462801182</v>
+        <v>253.1808197420519</v>
       </c>
       <c r="F43" t="n">
-        <v>448.8980922418745</v>
+        <v>76.47376570380814</v>
       </c>
       <c r="G43" t="n">
-        <v>283.3068172677021</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H43" t="n">
-        <v>143.4046429580766</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.404303635552</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S43" t="n">
-        <v>2512.162934933549</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="T43" t="n">
-        <v>2266.283488512004</v>
+        <v>2263.423485168206</v>
       </c>
       <c r="U43" t="n">
-        <v>2266.283488512004</v>
+        <v>1984.990484421312</v>
       </c>
       <c r="V43" t="n">
-        <v>2070.459302829808</v>
+        <v>1698.034976291742</v>
       </c>
       <c r="W43" t="n">
-        <v>1798.4328984161</v>
+        <v>1426.008571878034</v>
       </c>
       <c r="X43" t="n">
-        <v>1553.041143749512</v>
+        <v>1180.616817211446</v>
       </c>
       <c r="Y43" t="n">
-        <v>1325.62147306362</v>
+        <v>953.1971465255542</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>492.8871665493286</v>
+        <v>1080.983618291964</v>
       </c>
       <c r="C44" t="n">
-        <v>54.74469373275195</v>
+        <v>934.9446861160802</v>
       </c>
       <c r="D44" t="n">
-        <v>54.74469373275195</v>
+        <v>934.9446861160802</v>
       </c>
       <c r="E44" t="n">
-        <v>54.74469373275195</v>
+        <v>501.1699412743753</v>
       </c>
       <c r="F44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="G44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M44" t="n">
-        <v>54.74469373275195</v>
+        <v>476.079759218482</v>
       </c>
       <c r="N44" t="n">
-        <v>732.2102786755574</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="O44" t="n">
-        <v>1344.116250983141</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.581835925947</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q44" t="n">
-        <v>2568.080621884541</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T44" t="n">
-        <v>2517.167459510636</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U44" t="n">
-        <v>2257.945156827654</v>
+        <v>3102.184180553048</v>
       </c>
       <c r="V44" t="n">
-        <v>1895.32820676148</v>
+        <v>2739.567230486874</v>
       </c>
       <c r="W44" t="n">
-        <v>1490.472752172513</v>
+        <v>2334.711775897908</v>
       </c>
       <c r="X44" t="n">
-        <v>1327.472860734583</v>
+        <v>1915.569312477218</v>
       </c>
       <c r="Y44" t="n">
-        <v>919.1867370342364</v>
+        <v>1507.283188776872</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C45" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D45" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E45" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F45" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G45" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H45" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I45" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J45" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K45" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L45" t="n">
-        <v>54.74469373275195</v>
+        <v>916.8191066831936</v>
       </c>
       <c r="M45" t="n">
-        <v>54.74469373275195</v>
+        <v>916.8191066831936</v>
       </c>
       <c r="N45" t="n">
-        <v>382.60715354234</v>
+        <v>916.8191066831936</v>
       </c>
       <c r="O45" t="n">
-        <v>382.60715354234</v>
+        <v>916.8191066831936</v>
       </c>
       <c r="P45" t="n">
-        <v>1060.072738485145</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="Q45" t="n">
-        <v>1600.811677117221</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="R45" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S45" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T45" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U45" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V45" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W45" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X45" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y45" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>764.2385311503645</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C46" t="n">
-        <v>591.6768196335894</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D46" t="n">
-        <v>485.7029719704927</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E46" t="n">
-        <v>485.7029719704927</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F46" t="n">
-        <v>308.995917932249</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G46" t="n">
-        <v>143.4046429580766</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H46" t="n">
-        <v>143.4046429580766</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I46" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J46" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K46" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L46" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M46" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O46" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q46" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.404303635552</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S46" t="n">
-        <v>2512.162934933549</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="T46" t="n">
-        <v>2266.283488512004</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U46" t="n">
-        <v>1987.850487765109</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V46" t="n">
-        <v>1700.894979635539</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W46" t="n">
-        <v>1428.868575221831</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X46" t="n">
-        <v>1183.476820555243</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y46" t="n">
-        <v>956.0571498693516</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7987,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N2" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8067,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>733.6806231366372</v>
       </c>
       <c r="O3" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593996</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.0664782816748</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8222,16 +8224,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N5" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O5" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8304,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>852.0369646460713</v>
       </c>
       <c r="O6" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>331.1742018278667</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8456,19 +8458,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8544,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>684.3086716593995</v>
+        <v>187.4796750234295</v>
       </c>
       <c r="P9" t="n">
-        <v>684.3086716593996</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q9" t="n">
-        <v>193.0664782816748</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8696,16 +8698,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N11" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O11" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8778,16 +8780,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>331.1742018278667</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>733.6806231366372</v>
       </c>
       <c r="P12" t="n">
-        <v>684.3086716593995</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8933,16 +8935,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N14" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593995</v>
+        <v>235.9830129109519</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>331.1742018278667</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P15" t="n">
-        <v>684.3086716593995</v>
+        <v>763.7587670651191</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9252,16 +9254,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>315.3936483072348</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9486,10 +9488,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N21" t="n">
-        <v>469.2069973599082</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9641,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>376.7818457160665</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9659,7 +9661,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,16 +9725,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9966,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>161.1527324371088</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P27" t="n">
         <v>828.0031984638366</v>
@@ -10112,25 +10114,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>671.1057765021969</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10197,13 +10199,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
-        <v>537.6417914809772</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10437,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1015.482873487266</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,10 +10588,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463134</v>
+        <v>199.8177226071389</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10601,7 +10603,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10674,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>433.7499898166689</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,13 +10825,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>288.7351832965059</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10908,22 +10910,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,25 +11065,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593995</v>
+        <v>156.3782581120182</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593996</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
-        <v>104.640860725086</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,13 +11147,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>311.4228197911091</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N42" t="n">
-        <v>684.3086716593995</v>
+        <v>645.402425555685</v>
       </c>
       <c r="O42" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11160,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,22 +11305,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>406.845704580706</v>
       </c>
       <c r="N44" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O44" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,25 +11381,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>852.0369646460713</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>331.1742018278667</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>684.3086716593995</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -23264,16 +23266,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>115.8680294043068</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>174.1091161128887</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,19 +23503,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>292.9989978365642</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>30.44736252169088</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>110.0349065174851</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>122.9308428424044</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>18.31929241554607</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25324,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>12.032885206099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25628,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>163.4212026217392</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25685,13 +25687,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>108.0301030730383</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>160.7958207444078</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>90.22000922290025</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25865,16 +25867,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>289.1825052342861</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25928,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>253.5811462629314</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26026,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>59.30510368402685</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>394885.7648539983</v>
+        <v>477293.7114586759</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>394885.7648539982</v>
+        <v>477293.7114586759</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>394885.7648539982</v>
+        <v>477293.711458676</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>394885.7648539982</v>
+        <v>477293.7114586759</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26316,22 @@
         <v>321688.3919342451</v>
       </c>
       <c r="C2" t="n">
-        <v>321688.391934245</v>
+        <v>321688.3919342451</v>
       </c>
       <c r="D2" t="n">
-        <v>321688.391934245</v>
+        <v>321688.3919342451</v>
       </c>
       <c r="E2" t="n">
-        <v>206027.355575999</v>
+        <v>249022.8059784396</v>
       </c>
       <c r="F2" t="n">
-        <v>206027.355575999</v>
+        <v>249022.8059784397</v>
       </c>
       <c r="G2" t="n">
         <v>316114.5504824113</v>
       </c>
       <c r="H2" t="n">
-        <v>316114.5504824114</v>
+        <v>316114.5504824113</v>
       </c>
       <c r="I2" t="n">
         <v>316114.5504824113</v>
@@ -26350,10 +26352,10 @@
         <v>316114.5504824113</v>
       </c>
       <c r="O2" t="n">
-        <v>206027.355575999</v>
+        <v>249022.8059784396</v>
       </c>
       <c r="P2" t="n">
-        <v>206027.355575999</v>
+        <v>249022.8059784396</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>307066.9702867178</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>99213.04363527198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>239739.5295867427</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110551.3788292105</v>
+        <v>69760.40409482237</v>
       </c>
       <c r="C4" t="n">
-        <v>110551.3788292105</v>
+        <v>69760.40409482238</v>
       </c>
       <c r="D4" t="n">
-        <v>110551.3788292105</v>
+        <v>69760.4040948224</v>
       </c>
       <c r="E4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833579</v>
       </c>
       <c r="F4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833579</v>
       </c>
       <c r="G4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
         <v>806.3323907826024</v>
       </c>
       <c r="I4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="J4" t="n">
         <v>806.3323907826023</v>
@@ -26448,16 +26450,16 @@
         <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.332390782602</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>525.5263635751431</v>
+        <v>635.1974440833579</v>
       </c>
       <c r="P4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833579</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952316</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93424.12910436984</v>
+        <v>-144476.4913268182</v>
       </c>
       <c r="C6" t="n">
-        <v>135903.4458681429</v>
+        <v>162590.4789598995</v>
       </c>
       <c r="D6" t="n">
-        <v>135903.445868143</v>
+        <v>162590.4789598995</v>
       </c>
       <c r="E6" t="n">
-        <v>163895.8619755324</v>
+        <v>192677.6996548331</v>
       </c>
       <c r="F6" t="n">
-        <v>163895.8619755324</v>
+        <v>192677.6996548332</v>
       </c>
       <c r="G6" t="n">
-        <v>74796.69168739478</v>
+        <v>138376.9358505642</v>
       </c>
       <c r="H6" t="n">
-        <v>237589.9794858363</v>
+        <v>237589.9794858362</v>
       </c>
       <c r="I6" t="n">
         <v>237589.9794858362</v>
       </c>
       <c r="J6" t="n">
-        <v>58544.72139818431</v>
+        <v>-2149.550100906461</v>
       </c>
       <c r="K6" t="n">
         <v>237589.9794858362</v>
@@ -26558,10 +26560,10 @@
         <v>237589.9794858362</v>
       </c>
       <c r="O6" t="n">
-        <v>163895.8619755324</v>
+        <v>192677.6996548331</v>
       </c>
       <c r="P6" t="n">
-        <v>163895.8619755324</v>
+        <v>192677.6996548331</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447887</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>22.29697691191922</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>159.0967250493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111.423652304582</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.38556248553624</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>173.8972516245762</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>114.1599680048243</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>229.4233680290242</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27853,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>50.07267711208698</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>376.9632799049917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,13 +28070,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>201.9333177378956</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>117.7661826744371</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34705,16 +34707,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N2" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34787,16 +34789,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>733.6806231366372</v>
       </c>
       <c r="O3" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593996</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.0664782816748</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34869,7 +34871,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34942,16 +34944,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N5" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O5" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35024,19 +35026,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>852.0369646460713</v>
       </c>
       <c r="O6" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>331.1742018278667</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35106,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35176,19 +35178,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35264,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>684.3086716593995</v>
+        <v>187.4796750234295</v>
       </c>
       <c r="P9" t="n">
-        <v>684.3086716593996</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q9" t="n">
-        <v>193.0664782816748</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35343,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35416,16 +35418,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N11" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O11" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35498,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>331.1742018278667</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>733.6806231366372</v>
       </c>
       <c r="P12" t="n">
-        <v>684.3086716593995</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,16 +35655,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N14" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593995</v>
+        <v>235.9830129109519</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35738,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>331.1742018278667</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P15" t="n">
-        <v>684.3086716593995</v>
+        <v>763.7587670651191</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35972,16 +35974,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>315.3936483072348</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36206,10 +36208,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N21" t="n">
-        <v>469.2069973599082</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36361,7 +36363,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>376.7818457160665</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36379,7 +36381,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,16 +36445,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36686,7 +36688,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>161.1527324371088</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P27" t="n">
         <v>828.0031984638366</v>
@@ -36832,25 +36834,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>671.1057765021969</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
-        <v>537.6417914809772</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -37157,19 +37159,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1015.482873487266</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,10 +37308,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463134</v>
+        <v>199.8177226071389</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37321,7 +37323,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37394,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>433.7499898166689</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>288.7351832965059</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -37628,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593995</v>
+        <v>156.3782581120182</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593996</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
-        <v>104.640860725086</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,13 +37867,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>311.4228197911091</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N42" t="n">
-        <v>684.3086716593995</v>
+        <v>645.402425555685</v>
       </c>
       <c r="O42" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38023,22 +38025,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>406.845704580706</v>
       </c>
       <c r="N44" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O44" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38101,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>852.0369646460713</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>331.1742018278667</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>684.3086716593995</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1219392.301000505</v>
+        <v>1218599.390062644</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16877859.47655641</v>
+        <v>16877859.47655642</v>
       </c>
     </row>
     <row r="8">
@@ -670,7 +670,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>401.2917783829651</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -727,7 +727,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>240.3694383624723</v>
       </c>
     </row>
     <row r="3">
@@ -834,7 +834,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>123.290132303866</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -898,25 +898,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>386.7171393924871</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>112.3416013866397</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1068,10 +1068,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>3.139541480022785</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>43.48898701015895</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1141,19 +1141,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>326.5703600373936</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>236.1661758991289</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1341,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1353,10 +1353,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>125.1716544454846</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1372,16 +1372,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>313.5689679889809</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1390,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>117.4651282043139</v>
       </c>
     </row>
     <row r="12">
@@ -1542,10 +1542,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170459</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>155.2022955251541</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1612,22 +1612,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>407.7407354803348</v>
       </c>
       <c r="G14" t="n">
-        <v>104.3848552264046</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1767,16 +1767,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>137.5563529521255</v>
       </c>
       <c r="D16" t="n">
-        <v>54.18430635300744</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1785,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1861,10 +1861,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2955,10 +2955,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>24.62703520776638</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>102.8562685532374</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3720,10 +3720,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>166.3197703738366</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>409.8833292659193</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3748,19 +3748,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>266.0157947715485</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.139541480022785</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3979,16 +3979,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>144.5785428541249</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>131.8799389974548</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>103.8284742946033</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>240.273786227905</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1786.474744857284</v>
+        <v>1809.413733131072</v>
       </c>
       <c r="C2" t="n">
-        <v>1348.332272040707</v>
+        <v>1371.271260314496</v>
       </c>
       <c r="D2" t="n">
-        <v>912.4224872151517</v>
+        <v>935.3614754889402</v>
       </c>
       <c r="E2" t="n">
-        <v>478.6477423734469</v>
+        <v>501.5867306472354</v>
       </c>
       <c r="F2" t="n">
-        <v>73.30251168358311</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="G2" t="n">
-        <v>73.30251168358311</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H2" t="n">
-        <v>73.30251168358311</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I2" t="n">
         <v>73.30251168358311</v>
@@ -4360,22 +4360,22 @@
         <v>3665.125584179155</v>
       </c>
       <c r="T2" t="n">
-        <v>3445.058357052194</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U2" t="n">
-        <v>3445.058357052194</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V2" t="n">
-        <v>3445.058357052194</v>
+        <v>3302.508634112982</v>
       </c>
       <c r="W2" t="n">
-        <v>3040.202902463227</v>
+        <v>2897.653179524015</v>
       </c>
       <c r="X2" t="n">
-        <v>2621.060439042538</v>
+        <v>2478.510716103326</v>
       </c>
       <c r="Y2" t="n">
-        <v>2212.774315342192</v>
+        <v>2235.71330361598</v>
       </c>
     </row>
     <row r="3">
@@ -4421,13 +4421,13 @@
         <v>73.30251168358311</v>
       </c>
       <c r="N3" t="n">
-        <v>799.6463285888539</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="O3" t="n">
-        <v>799.6463285888539</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="P3" t="n">
-        <v>1619.369495068052</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q3" t="n">
         <v>1619.369495068052</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1063.70072307014</v>
+        <v>1048.334035936137</v>
       </c>
       <c r="C4" t="n">
-        <v>891.1390115533646</v>
+        <v>875.7723244193616</v>
       </c>
       <c r="D4" t="n">
-        <v>725.2610187548873</v>
+        <v>709.8943316208843</v>
       </c>
       <c r="E4" t="n">
-        <v>555.5030150056247</v>
+        <v>540.1363278716215</v>
       </c>
       <c r="F4" t="n">
-        <v>378.7959609673809</v>
+        <v>363.4292738333777</v>
       </c>
       <c r="G4" t="n">
-        <v>213.2046859932086</v>
+        <v>197.8379988592054</v>
       </c>
       <c r="H4" t="n">
         <v>73.30251168358311</v>
@@ -4512,28 +4512,28 @@
         <v>2689.962121586383</v>
       </c>
       <c r="R4" t="n">
-        <v>2689.962121586383</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S4" t="n">
-        <v>2689.962121586383</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="T4" t="n">
-        <v>2565.745680431779</v>
+        <v>2263.423485168206</v>
       </c>
       <c r="U4" t="n">
-        <v>2287.312679684884</v>
+        <v>1984.990484421312</v>
       </c>
       <c r="V4" t="n">
-        <v>2000.357171555315</v>
+        <v>1984.990484421312</v>
       </c>
       <c r="W4" t="n">
-        <v>1728.330767141606</v>
+        <v>1712.964080007603</v>
       </c>
       <c r="X4" t="n">
-        <v>1482.939012475019</v>
+        <v>1467.572325341016</v>
       </c>
       <c r="Y4" t="n">
-        <v>1255.519341789127</v>
+        <v>1240.152654655124</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1922.890098168082</v>
+        <v>1643.925021918072</v>
       </c>
       <c r="C5" t="n">
-        <v>1484.747625351506</v>
+        <v>1253.301648794347</v>
       </c>
       <c r="D5" t="n">
-        <v>1048.83784052595</v>
+        <v>1221.432268009196</v>
       </c>
       <c r="E5" t="n">
-        <v>615.0630956842451</v>
+        <v>1191.697927207895</v>
       </c>
       <c r="F5" t="n">
-        <v>187.1956660934529</v>
+        <v>763.830497617103</v>
       </c>
       <c r="G5" t="n">
-        <v>187.1956660934529</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="H5" t="n">
-        <v>73.7193010564431</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I5" t="n">
         <v>73.30251168358311</v>
@@ -4594,25 +4594,25 @@
         <v>3665.125584179155</v>
       </c>
       <c r="S5" t="n">
-        <v>3581.473710362992</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T5" t="n">
-        <v>3581.473710362992</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U5" t="n">
-        <v>3581.473710362992</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V5" t="n">
-        <v>3581.473710362992</v>
+        <v>3302.508634112982</v>
       </c>
       <c r="W5" t="n">
-        <v>3176.618255774026</v>
+        <v>2897.653179524015</v>
       </c>
       <c r="X5" t="n">
-        <v>2757.475792353337</v>
+        <v>2478.510716103326</v>
       </c>
       <c r="Y5" t="n">
-        <v>2349.18966865299</v>
+        <v>2070.224592402979</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>73.30251168358311</v>
       </c>
       <c r="I6" t="n">
-        <v>73.30251168358311</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J6" t="n">
-        <v>73.30251168358311</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K6" t="n">
-        <v>73.30251168358311</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L6" t="n">
-        <v>73.30251168358311</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M6" t="n">
-        <v>73.30251168358311</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N6" t="n">
-        <v>916.8191066831936</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O6" t="n">
-        <v>916.8191066831936</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P6" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q6" t="n">
-        <v>1736.542273162392</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R6" t="n">
         <v>1736.542273162392</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>898.1094480959675</v>
+        <v>761.378527806567</v>
       </c>
       <c r="C7" t="n">
-        <v>725.5477365791925</v>
+        <v>588.816816289792</v>
       </c>
       <c r="D7" t="n">
-        <v>559.6697437807152</v>
+        <v>422.9388234913147</v>
       </c>
       <c r="E7" t="n">
-        <v>389.9117400314524</v>
+        <v>253.1808197420519</v>
       </c>
       <c r="F7" t="n">
-        <v>213.2046859932086</v>
+        <v>76.47376570380814</v>
       </c>
       <c r="G7" t="n">
-        <v>213.2046859932086</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H7" t="n">
         <v>73.30251168358311</v>
@@ -4749,28 +4749,28 @@
         <v>2689.962121586383</v>
       </c>
       <c r="R7" t="n">
-        <v>2689.962121586383</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S7" t="n">
-        <v>2646.033851879151</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="T7" t="n">
-        <v>2400.154405457607</v>
+        <v>2263.423485168206</v>
       </c>
       <c r="U7" t="n">
-        <v>2121.721404710712</v>
+        <v>1984.990484421312</v>
       </c>
       <c r="V7" t="n">
-        <v>1834.765896581142</v>
+        <v>1698.034976291742</v>
       </c>
       <c r="W7" t="n">
-        <v>1562.739492167434</v>
+        <v>1426.008571878034</v>
       </c>
       <c r="X7" t="n">
-        <v>1317.347737500847</v>
+        <v>1180.616817211446</v>
       </c>
       <c r="Y7" t="n">
-        <v>1089.928066814955</v>
+        <v>953.1971465255542</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.965425958475</v>
+        <v>1301.050845418925</v>
       </c>
       <c r="C8" t="n">
-        <v>1609.822953141899</v>
+        <v>862.9083726023487</v>
       </c>
       <c r="D8" t="n">
-        <v>1173.913168316343</v>
+        <v>426.9985877767932</v>
       </c>
       <c r="E8" t="n">
-        <v>740.1384234746383</v>
+        <v>97.12953723397132</v>
       </c>
       <c r="F8" t="n">
-        <v>312.2709938838461</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="G8" t="n">
-        <v>312.2709938838461</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H8" t="n">
-        <v>73.7193010564431</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I8" t="n">
         <v>73.30251168358311</v>
@@ -4810,13 +4810,13 @@
         <v>73.30251168358311</v>
       </c>
       <c r="L8" t="n">
-        <v>306.9256944654255</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M8" t="n">
-        <v>306.9256944654255</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="N8" t="n">
-        <v>1214.044276549766</v>
+        <v>1887.539675852265</v>
       </c>
       <c r="O8" t="n">
         <v>2121.162858634107</v>
@@ -4831,25 +4831,25 @@
         <v>3665.125584179155</v>
       </c>
       <c r="S8" t="n">
-        <v>3665.125584179155</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T8" t="n">
-        <v>3665.125584179155</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="U8" t="n">
-        <v>3665.125584179155</v>
+        <v>3322.251407680009</v>
       </c>
       <c r="V8" t="n">
-        <v>3302.508634112982</v>
+        <v>2959.634457613835</v>
       </c>
       <c r="W8" t="n">
-        <v>3301.693583564419</v>
+        <v>2554.779003024869</v>
       </c>
       <c r="X8" t="n">
-        <v>2882.55112014373</v>
+        <v>2135.63653960418</v>
       </c>
       <c r="Y8" t="n">
-        <v>2474.264996443383</v>
+        <v>1727.350415903833</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>73.30251168358311</v>
       </c>
       <c r="I9" t="n">
-        <v>73.30251168358311</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J9" t="n">
-        <v>73.30251168358311</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K9" t="n">
-        <v>73.30251168358311</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L9" t="n">
-        <v>73.30251168358311</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M9" t="n">
-        <v>73.30251168358311</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N9" t="n">
-        <v>73.30251168358311</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O9" t="n">
-        <v>258.9073899567783</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P9" t="n">
         <v>1078.630556435977</v>
@@ -4989,19 +4989,19 @@
         <v>2668.544300291755</v>
       </c>
       <c r="S10" t="n">
-        <v>2509.302931589751</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="T10" t="n">
-        <v>2263.423485168206</v>
+        <v>2654.405629657103</v>
       </c>
       <c r="U10" t="n">
-        <v>1984.990484421312</v>
+        <v>2375.972628910209</v>
       </c>
       <c r="V10" t="n">
-        <v>1698.034976291742</v>
+        <v>2089.017120780639</v>
       </c>
       <c r="W10" t="n">
-        <v>1698.034976291742</v>
+        <v>1816.990716366931</v>
       </c>
       <c r="X10" t="n">
         <v>1571.598961700343</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1080.983618291964</v>
+        <v>1629.840400024472</v>
       </c>
       <c r="C11" t="n">
-        <v>1080.983618291964</v>
+        <v>1191.697927207895</v>
       </c>
       <c r="D11" t="n">
-        <v>1080.983618291964</v>
+        <v>1191.697927207895</v>
       </c>
       <c r="E11" t="n">
-        <v>764.247286989963</v>
+        <v>1191.697927207895</v>
       </c>
       <c r="F11" t="n">
-        <v>764.247286989963</v>
+        <v>763.830497617103</v>
       </c>
       <c r="G11" t="n">
-        <v>362.8494556132268</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="H11" t="n">
-        <v>73.7193010564431</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I11" t="n">
         <v>73.30251168358311</v>
@@ -5047,22 +5047,22 @@
         <v>73.30251168358311</v>
       </c>
       <c r="L11" t="n">
-        <v>73.30251168358311</v>
+        <v>115.4599630927367</v>
       </c>
       <c r="M11" t="n">
-        <v>306.9256944654255</v>
+        <v>1022.578545177078</v>
       </c>
       <c r="N11" t="n">
-        <v>1214.044276549766</v>
+        <v>1929.697127261418</v>
       </c>
       <c r="O11" t="n">
-        <v>2121.162858634107</v>
+        <v>2836.815709345759</v>
       </c>
       <c r="P11" t="n">
-        <v>2949.472733467504</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="Q11" t="n">
-        <v>3495.971519426098</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R11" t="n">
         <v>3665.125584179155</v>
@@ -5074,19 +5074,19 @@
         <v>3361.406483236031</v>
       </c>
       <c r="U11" t="n">
-        <v>3102.184180553048</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="V11" t="n">
-        <v>2739.567230486874</v>
+        <v>2998.789533169857</v>
       </c>
       <c r="W11" t="n">
-        <v>2334.711775897908</v>
+        <v>2593.934078580891</v>
       </c>
       <c r="X11" t="n">
-        <v>1915.569312477218</v>
+        <v>2174.791615160202</v>
       </c>
       <c r="Y11" t="n">
-        <v>1507.283188776872</v>
+        <v>2056.13997050938</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>73.30251168358311</v>
       </c>
       <c r="I12" t="n">
-        <v>73.30251168358311</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J12" t="n">
-        <v>73.30251168358311</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K12" t="n">
-        <v>73.30251168358311</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L12" t="n">
-        <v>73.30251168358311</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M12" t="n">
-        <v>73.30251168358311</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N12" t="n">
-        <v>73.30251168358311</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O12" t="n">
-        <v>799.6463285888539</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P12" t="n">
-        <v>1619.369495068052</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q12" t="n">
         <v>1619.369495068052</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>782.7963491011951</v>
+        <v>1063.70072307014</v>
       </c>
       <c r="C13" t="n">
-        <v>610.2346375844201</v>
+        <v>891.1390115533646</v>
       </c>
       <c r="D13" t="n">
-        <v>444.3566447859428</v>
+        <v>725.2610187548873</v>
       </c>
       <c r="E13" t="n">
-        <v>274.59864103668</v>
+        <v>555.5030150056247</v>
       </c>
       <c r="F13" t="n">
-        <v>97.89158699843622</v>
+        <v>378.7959609673809</v>
       </c>
       <c r="G13" t="n">
-        <v>73.30251168358311</v>
+        <v>213.2046859932086</v>
       </c>
       <c r="H13" t="n">
         <v>73.30251168358311</v>
@@ -5226,25 +5226,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S13" t="n">
-        <v>2530.720752884379</v>
+        <v>2533.192126106429</v>
       </c>
       <c r="T13" t="n">
-        <v>2284.841306462834</v>
+        <v>2287.312679684884</v>
       </c>
       <c r="U13" t="n">
-        <v>2006.40830571594</v>
+        <v>2287.312679684884</v>
       </c>
       <c r="V13" t="n">
-        <v>1719.45279758637</v>
+        <v>2000.357171555315</v>
       </c>
       <c r="W13" t="n">
-        <v>1447.426393172662</v>
+        <v>1728.330767141606</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.034638506074</v>
+        <v>1482.939012475019</v>
       </c>
       <c r="Y13" t="n">
-        <v>974.6149678201823</v>
+        <v>1255.519341789127</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1340.205920974947</v>
+        <v>1792.988842935435</v>
       </c>
       <c r="C14" t="n">
-        <v>902.0634481583706</v>
+        <v>1354.846370118858</v>
       </c>
       <c r="D14" t="n">
-        <v>902.0634481583706</v>
+        <v>918.9365852933029</v>
       </c>
       <c r="E14" t="n">
-        <v>468.2887033166658</v>
+        <v>485.161840451598</v>
       </c>
       <c r="F14" t="n">
-        <v>468.2887033166658</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="G14" t="n">
-        <v>362.8494556132268</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H14" t="n">
-        <v>73.7193010564431</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I14" t="n">
         <v>73.30251168358311</v>
@@ -5293,7 +5293,7 @@
         <v>1887.539675852265</v>
       </c>
       <c r="O14" t="n">
-        <v>2121.162858634107</v>
+        <v>2794.658257936606</v>
       </c>
       <c r="P14" t="n">
         <v>2949.472733467504</v>
@@ -5305,25 +5305,25 @@
         <v>3665.125584179155</v>
       </c>
       <c r="S14" t="n">
-        <v>3581.473710362992</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T14" t="n">
-        <v>3361.406483236031</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U14" t="n">
-        <v>3361.406483236031</v>
+        <v>3405.903281496172</v>
       </c>
       <c r="V14" t="n">
-        <v>2998.789533169857</v>
+        <v>3043.286331429998</v>
       </c>
       <c r="W14" t="n">
-        <v>2593.934078580891</v>
+        <v>2638.430876841032</v>
       </c>
       <c r="X14" t="n">
-        <v>2174.791615160202</v>
+        <v>2219.288413420343</v>
       </c>
       <c r="Y14" t="n">
-        <v>1766.505491459855</v>
+        <v>2219.288413420343</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>73.30251168358311</v>
       </c>
       <c r="I15" t="n">
-        <v>73.30251168358311</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J15" t="n">
-        <v>73.30251168358311</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K15" t="n">
-        <v>73.30251168358311</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L15" t="n">
-        <v>73.30251168358311</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M15" t="n">
-        <v>73.30251168358311</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N15" t="n">
-        <v>73.30251168358311</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O15" t="n">
-        <v>980.4210937679239</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P15" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q15" t="n">
-        <v>1736.542273162392</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R15" t="n">
         <v>1736.542273162392</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>782.7963491011951</v>
+        <v>942.0377178031986</v>
       </c>
       <c r="C16" t="n">
-        <v>610.2346375844201</v>
+        <v>803.0919067404456</v>
       </c>
       <c r="D16" t="n">
-        <v>555.5030150056247</v>
+        <v>637.2139139419683</v>
       </c>
       <c r="E16" t="n">
-        <v>555.5030150056247</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="F16" t="n">
-        <v>378.7959609673809</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="G16" t="n">
-        <v>213.2046859932086</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H16" t="n">
-        <v>73.30251168358311</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I16" t="n">
         <v>73.30251168358311</v>
@@ -5463,25 +5463,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S16" t="n">
-        <v>2530.720752884379</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T16" t="n">
-        <v>2284.841306462834</v>
+        <v>2444.082675164838</v>
       </c>
       <c r="U16" t="n">
-        <v>2006.40830571594</v>
+        <v>2165.649674417943</v>
       </c>
       <c r="V16" t="n">
-        <v>1719.45279758637</v>
+        <v>1878.694166288373</v>
       </c>
       <c r="W16" t="n">
-        <v>1447.426393172662</v>
+        <v>1606.667761874665</v>
       </c>
       <c r="X16" t="n">
-        <v>1202.034638506074</v>
+        <v>1361.276007208078</v>
       </c>
       <c r="Y16" t="n">
-        <v>974.6149678201823</v>
+        <v>1133.856336522186</v>
       </c>
     </row>
     <row r="17">
@@ -5509,7 +5509,7 @@
         <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5591,22 +5591,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
         <v>1107.588885023173</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
         <v>2090.757574835212</v>
@@ -5779,25 +5779,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6229,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,25 +6302,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6466,25 +6466,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>1601.005850966132</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M29" t="n">
-        <v>2758.053686176683</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883914</v>
+        <v>845.683004334921</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716164</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2593.607408118105</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2347.72796169656</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2069.294960949665</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>1782.339452820096</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1510.313048406387</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>1264.9212937398</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1037.501623053908</v>
       </c>
     </row>
     <row r="32">
@@ -6700,13 +6700,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>1371.865819681875</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
         <v>1463.16863798718</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6940,25 +6940,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>1134.430677610025</v>
+        <v>1021.773653488281</v>
       </c>
       <c r="M35" t="n">
-        <v>2291.478512820576</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="N35" t="n">
-        <v>3417.209496257023</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O35" t="n">
-        <v>4397.38916282733</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7013,25 +7013,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7180,22 +7180,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>306.120802776629</v>
+        <v>1021.77365348828</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.16863798718</v>
+        <v>2178.821488698831</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1643.925021918072</v>
+        <v>2499.941719064592</v>
       </c>
       <c r="C41" t="n">
-        <v>1205.782549101495</v>
+        <v>2061.799246248016</v>
       </c>
       <c r="D41" t="n">
-        <v>769.8727642759395</v>
+        <v>1625.88946142246</v>
       </c>
       <c r="E41" t="n">
-        <v>501.1699412743753</v>
+        <v>1192.114716580755</v>
       </c>
       <c r="F41" t="n">
-        <v>73.30251168358311</v>
+        <v>764.247286989963</v>
       </c>
       <c r="G41" t="n">
-        <v>73.30251168358311</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H41" t="n">
-        <v>73.30251168358311</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I41" t="n">
         <v>73.30251168358311</v>
@@ -7417,16 +7417,16 @@
         <v>73.30251168358311</v>
       </c>
       <c r="L41" t="n">
+        <v>73.30251168358311</v>
+      </c>
+      <c r="M41" t="n">
         <v>980.4210937679239</v>
       </c>
-      <c r="M41" t="n">
-        <v>1135.235569298822</v>
-      </c>
       <c r="N41" t="n">
-        <v>2042.354151383163</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O41" t="n">
-        <v>2949.472733467504</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P41" t="n">
         <v>2949.472733467504</v>
@@ -7438,25 +7438,25 @@
         <v>3665.125584179155</v>
       </c>
       <c r="S41" t="n">
-        <v>3665.125584179155</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T41" t="n">
-        <v>3665.125584179155</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="U41" t="n">
-        <v>3665.125584179155</v>
+        <v>3322.251407680009</v>
       </c>
       <c r="V41" t="n">
-        <v>3302.508634112982</v>
+        <v>3322.251407680009</v>
       </c>
       <c r="W41" t="n">
-        <v>2897.653179524015</v>
+        <v>3322.251407680009</v>
       </c>
       <c r="X41" t="n">
-        <v>2478.510716103326</v>
+        <v>3322.251407680009</v>
       </c>
       <c r="Y41" t="n">
-        <v>2070.224592402979</v>
+        <v>2913.965283979662</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>73.30251168358311</v>
       </c>
       <c r="I42" t="n">
-        <v>73.30251168358311</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J42" t="n">
-        <v>73.30251168358311</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K42" t="n">
-        <v>73.30251168358311</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L42" t="n">
-        <v>73.30251168358311</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M42" t="n">
-        <v>980.4210937679239</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N42" t="n">
-        <v>1619.369495068052</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O42" t="n">
-        <v>1619.369495068052</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P42" t="n">
-        <v>1619.369495068052</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q42" t="n">
         <v>1619.369495068052</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>761.378527806567</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C43" t="n">
-        <v>588.816816289792</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D43" t="n">
-        <v>422.9388234913147</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E43" t="n">
-        <v>253.1808197420519</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F43" t="n">
-        <v>76.47376570380814</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G43" t="n">
         <v>73.30251168358311</v>
@@ -7593,28 +7593,28 @@
         <v>2689.962121586383</v>
       </c>
       <c r="R43" t="n">
-        <v>2668.544300291755</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S43" t="n">
-        <v>2509.302931589751</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T43" t="n">
-        <v>2263.423485168206</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U43" t="n">
-        <v>1984.990484421312</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V43" t="n">
-        <v>1698.034976291742</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W43" t="n">
-        <v>1426.008571878034</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X43" t="n">
-        <v>1180.616817211446</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y43" t="n">
-        <v>953.1971465255542</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="44">
@@ -7627,22 +7627,22 @@
         <v>1080.983618291964</v>
       </c>
       <c r="C44" t="n">
-        <v>934.9446861160802</v>
+        <v>642.8411454753873</v>
       </c>
       <c r="D44" t="n">
-        <v>934.9446861160802</v>
+        <v>206.9313606498318</v>
       </c>
       <c r="E44" t="n">
-        <v>501.1699412743753</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="F44" t="n">
-        <v>73.30251168358311</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="G44" t="n">
-        <v>73.30251168358311</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H44" t="n">
-        <v>73.30251168358311</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I44" t="n">
         <v>73.30251168358311</v>
@@ -7657,19 +7657,19 @@
         <v>73.30251168358311</v>
       </c>
       <c r="M44" t="n">
-        <v>476.079759218482</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="N44" t="n">
-        <v>1383.198341302823</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O44" t="n">
-        <v>2290.316923387164</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P44" t="n">
-        <v>3118.62679822056</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q44" t="n">
-        <v>3665.125584179155</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R44" t="n">
         <v>3665.125584179155</v>
@@ -7724,31 +7724,31 @@
         <v>73.30251168358311</v>
       </c>
       <c r="I45" t="n">
-        <v>73.30251168358311</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J45" t="n">
-        <v>73.30251168358311</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="K45" t="n">
-        <v>73.30251168358311</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="L45" t="n">
-        <v>916.8191066831936</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="M45" t="n">
-        <v>916.8191066831936</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="N45" t="n">
-        <v>916.8191066831936</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="O45" t="n">
-        <v>916.8191066831936</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="P45" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q45" t="n">
-        <v>1736.542273162392</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R45" t="n">
         <v>1736.542273162392</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>923.7985487605143</v>
+        <v>1028.67579552274</v>
       </c>
       <c r="C46" t="n">
-        <v>751.2368372437393</v>
+        <v>856.1140840059649</v>
       </c>
       <c r="D46" t="n">
-        <v>585.358844445262</v>
+        <v>690.2360912074876</v>
       </c>
       <c r="E46" t="n">
-        <v>415.6008406959992</v>
+        <v>520.4780874582248</v>
       </c>
       <c r="F46" t="n">
-        <v>238.8937866577554</v>
+        <v>343.771033419981</v>
       </c>
       <c r="G46" t="n">
-        <v>73.30251168358311</v>
+        <v>178.1797584458087</v>
       </c>
       <c r="H46" t="n">
         <v>73.30251168358311</v>
@@ -7830,28 +7830,28 @@
         <v>2689.962121586383</v>
       </c>
       <c r="R46" t="n">
-        <v>2668.544300291755</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S46" t="n">
-        <v>2668.544300291755</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T46" t="n">
-        <v>2425.843506122153</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="U46" t="n">
-        <v>2147.410505375259</v>
+        <v>2252.287752137484</v>
       </c>
       <c r="V46" t="n">
-        <v>1860.454997245689</v>
+        <v>1965.332244007915</v>
       </c>
       <c r="W46" t="n">
-        <v>1588.428592831981</v>
+        <v>1693.305839594206</v>
       </c>
       <c r="X46" t="n">
-        <v>1343.036838165393</v>
+        <v>1447.914084927619</v>
       </c>
       <c r="Y46" t="n">
-        <v>1115.617167479501</v>
+        <v>1220.494414241727</v>
       </c>
     </row>
   </sheetData>
@@ -8069,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>733.6806231366372</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>187.4796750234295</v>
       </c>
       <c r="P3" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>852.0369646460713</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8458,16 +8458,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>235.983012910952</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N8" t="n">
-        <v>916.2813960447888</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="O8" t="n">
-        <v>916.2813960447888</v>
+        <v>235.9830129109519</v>
       </c>
       <c r="P8" t="n">
         <v>836.6766412458549</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,16 +8540,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>187.4796750234295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8695,10 +8695,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>42.58328425167029</v>
       </c>
       <c r="M11" t="n">
-        <v>235.983012910952</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N11" t="n">
         <v>916.2813960447888</v>
@@ -8710,10 +8710,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>733.6806231366372</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8941,10 +8941,10 @@
         <v>916.2813960447889</v>
       </c>
       <c r="O14" t="n">
-        <v>235.9830129109519</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>156.3782581120181</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>763.7587670651191</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9889,16 +9889,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10114,16 +10114,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>671.1057765021969</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10135,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,10 +10588,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>199.8177226071389</v>
+        <v>928.8008214318197</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10603,13 +10603,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,10 +10679,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463125</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10843,10 +10843,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,19 +11065,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
         <v>916.2813960447888</v>
       </c>
-      <c r="M41" t="n">
-        <v>156.3782581120182</v>
-      </c>
       <c r="N41" t="n">
-        <v>916.2813960447888</v>
+        <v>235.983012910952</v>
       </c>
       <c r="O41" t="n">
         <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11135,22 +11135,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>645.402425555685</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11305,10 +11305,10 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>406.845704580706</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N44" t="n">
-        <v>916.2813960447888</v>
+        <v>235.983012910952</v>
       </c>
       <c r="O44" t="n">
         <v>916.2813960447888</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>852.0369646460713</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>161.1527324371087</v>
       </c>
       <c r="P45" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23260,16 +23260,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>115.8680294043068</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>286.7381342590292</v>
       </c>
     </row>
     <row r="12">
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23466,13 +23466,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.446659489829187</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>15.84801981454956</v>
       </c>
       <c r="G14" t="n">
-        <v>292.9989978365642</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>33.27974144948183</v>
       </c>
       <c r="D16" t="n">
-        <v>110.0349065174851</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>139.5921776627262</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>54.7926864617459</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>117.7661826744372</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>12.15324551413943</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>163.4212026217392</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.7958207444078</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25867,16 +25867,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>289.1825052342861</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>297.557058395833</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -25885,7 +25885,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>34.67467827192593</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>3.146865729424235</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>477293.711458676</v>
+        <v>477293.7114586759</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>321688.3919342451</v>
+        <v>321688.391934245</v>
       </c>
       <c r="C2" t="n">
         <v>321688.3919342451</v>
@@ -26325,10 +26325,10 @@
         <v>249022.8059784396</v>
       </c>
       <c r="F2" t="n">
-        <v>249022.8059784397</v>
+        <v>249022.8059784396</v>
       </c>
       <c r="G2" t="n">
-        <v>316114.5504824113</v>
+        <v>316114.5504824114</v>
       </c>
       <c r="H2" t="n">
         <v>316114.5504824113</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69760.40409482237</v>
+        <v>69760.40409482238</v>
       </c>
       <c r="C4" t="n">
         <v>69760.40409482238</v>
       </c>
       <c r="D4" t="n">
-        <v>69760.4040948224</v>
+        <v>69760.40409482238</v>
       </c>
       <c r="E4" t="n">
-        <v>635.1974440833579</v>
+        <v>635.1974440833578</v>
       </c>
       <c r="F4" t="n">
-        <v>635.1974440833579</v>
+        <v>635.1974440833578</v>
       </c>
       <c r="G4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="I4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="J4" t="n">
         <v>806.3323907826023</v>
@@ -26450,13 +26450,13 @@
         <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>806.332390782602</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="N4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>635.1974440833579</v>
+        <v>635.1974440833578</v>
       </c>
       <c r="P4" t="n">
         <v>635.1974440833579</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-144476.4913268182</v>
+        <v>-144476.4913268183</v>
       </c>
       <c r="C6" t="n">
         <v>162590.4789598995</v>
@@ -26530,40 +26530,40 @@
         <v>162590.4789598995</v>
       </c>
       <c r="E6" t="n">
-        <v>192677.6996548331</v>
+        <v>192374.9263800172</v>
       </c>
       <c r="F6" t="n">
-        <v>192677.6996548332</v>
+        <v>192374.9263800172</v>
       </c>
       <c r="G6" t="n">
-        <v>138376.9358505642</v>
+        <v>138353.7115111817</v>
       </c>
       <c r="H6" t="n">
-        <v>237589.9794858362</v>
+        <v>237566.7551464536</v>
       </c>
       <c r="I6" t="n">
-        <v>237589.9794858362</v>
+        <v>237566.7551464535</v>
       </c>
       <c r="J6" t="n">
-        <v>-2149.550100906461</v>
+        <v>-2172.774440289189</v>
       </c>
       <c r="K6" t="n">
-        <v>237589.9794858362</v>
+        <v>237566.7551464535</v>
       </c>
       <c r="L6" t="n">
-        <v>237589.9794858362</v>
+        <v>237566.7551464536</v>
       </c>
       <c r="M6" t="n">
-        <v>237589.9794858362</v>
+        <v>237566.7551464536</v>
       </c>
       <c r="N6" t="n">
-        <v>237589.9794858362</v>
+        <v>237566.7551464535</v>
       </c>
       <c r="O6" t="n">
-        <v>192677.6996548331</v>
+        <v>192374.9263800172</v>
       </c>
       <c r="P6" t="n">
-        <v>192677.6996548331</v>
+        <v>192374.9263800172</v>
       </c>
     </row>
   </sheetData>
@@ -27390,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.29697691191922</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27399,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>163.8338241008708</v>
       </c>
     </row>
     <row r="3">
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>15.21302026266321</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>47.04390869592379</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>173.8972516245762</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27675,7 +27675,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7958207444078</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>114.1599680048243</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>102.8666373558942</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>50.07267711208698</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28073,10 +28073,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>117.7661826744371</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34789,16 +34789,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>733.6806231366372</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>187.4796750234295</v>
       </c>
       <c r="P3" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35026,19 +35026,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>852.0369646460713</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35178,16 +35178,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>235.983012910952</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N8" t="n">
-        <v>916.2813960447888</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="O8" t="n">
-        <v>916.2813960447888</v>
+        <v>235.9830129109519</v>
       </c>
       <c r="P8" t="n">
         <v>836.6766412458551</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,16 +35260,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>187.4796750234295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35415,10 +35415,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>42.58328425167029</v>
       </c>
       <c r="M11" t="n">
-        <v>235.983012910952</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N11" t="n">
         <v>916.2813960447888</v>
@@ -35427,13 +35427,13 @@
         <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>733.6806231366372</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35661,10 +35661,10 @@
         <v>916.2813960447889</v>
       </c>
       <c r="O14" t="n">
-        <v>235.9830129109519</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>156.3782581120181</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>763.7587670651191</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35977,7 +35977,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36451,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36688,10 +36688,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36834,16 +36834,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>671.1057765021969</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36855,7 +36855,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37159,19 +37159,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,10 +37308,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>199.8177226071389</v>
+        <v>928.8008214318197</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37323,13 +37323,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37399,10 +37399,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37548,7 +37548,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463125</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37563,10 +37563,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37642,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,19 +37785,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
         <v>916.2813960447888</v>
       </c>
-      <c r="M41" t="n">
-        <v>156.3782581120182</v>
-      </c>
       <c r="N41" t="n">
-        <v>916.2813960447888</v>
+        <v>235.983012910952</v>
       </c>
       <c r="O41" t="n">
         <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>645.402425555685</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -38025,10 +38025,10 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>406.845704580706</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N44" t="n">
-        <v>916.2813960447888</v>
+        <v>235.983012910952</v>
       </c>
       <c r="O44" t="n">
         <v>916.2813960447888</v>
@@ -38037,10 +38037,10 @@
         <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157527</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>852.0369646460713</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>161.1527324371087</v>
       </c>
       <c r="P45" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
